--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_18_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_18_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3071291.676355664</v>
+        <v>3162222.247210732</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555926.37779077</v>
+        <v>1555926.377790769</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C11" t="n">
-        <v>151.6464219970123</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>346.6889127332382</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043383</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124636</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>296.6755569574472</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1664,16 +1666,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W14" t="n">
-        <v>195.8647474770666</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128492</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1855,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>19.88726876161974</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>49.42639757795455</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>280.7771218515423</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,19 +2010,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572831</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>261.5459553935344</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>296.2842774481084</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
         <v>322.7559640598765</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,16 +2247,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I22" t="n">
         <v>49.37728379124554</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T22" t="n">
         <v>172.5738126575766</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U23" t="n">
         <v>204.0200353403093</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247751</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2555,22 +2557,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695846</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2615,10 +2617,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,22 +2715,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124548</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2769,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870216</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,7 +2778,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2792,22 +2794,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687276</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210282</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,16 +3006,16 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052367</v>
       </c>
       <c r="W31" t="n">
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3083,7 +3085,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403102</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3317,10 +3319,10 @@
         <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
-        <v>104.7198605013996</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>151.7970623206825</v>
       </c>
       <c r="V35" t="n">
         <v>280.7771218515423</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3509,16 +3511,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>51.18027712494056</v>
       </c>
       <c r="F38" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>43.98432467468389</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
         <v>322.7559640598765</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3681,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>317.922646480298</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>324.456129066156</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.4425172951292</v>
+        <v>62.95376192076215</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>141.1762660121947</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>183.7445803284265</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>39.77808571121675</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>188.3042989869299</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1850.138062270042</v>
+        <v>1690.224680302052</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1368.711796309713</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1368.711796309713</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>1030.373176659542</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>666.836904818008</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="U11" t="n">
-        <v>3104.236671416635</v>
+        <v>2960.996863163377</v>
       </c>
       <c r="V11" t="n">
-        <v>2820.623417021137</v>
+        <v>2677.38360876788</v>
       </c>
       <c r="W11" t="n">
-        <v>2515.304394699097</v>
+        <v>2372.064586445839</v>
       </c>
       <c r="X11" t="n">
-        <v>2189.28826938609</v>
+        <v>2372.064586445839</v>
       </c>
       <c r="Y11" t="n">
-        <v>2189.28826938609</v>
+        <v>2029.3748874181</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052951</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254615</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611991</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268793</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770422</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998345</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657656</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328087</v>
@@ -5242,7 +5244,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874615</v>
+        <v>893.6650816874607</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>979.8546354718744</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,40 +5290,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
         <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2898.155827638545</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2700.312648368781</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341042</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
@@ -5431,7 +5433,7 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
@@ -5449,19 +5451,19 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
         <v>1938.403572105846</v>
@@ -5479,7 +5481,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874611</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1364.208554989045</v>
+        <v>1507.448363242303</v>
       </c>
       <c r="C17" t="n">
-        <v>1042.695670996706</v>
+        <v>1185.935479249965</v>
       </c>
       <c r="D17" t="n">
-        <v>1042.695670996706</v>
+        <v>1185.935479249965</v>
       </c>
       <c r="E17" t="n">
-        <v>704.3570513465355</v>
+        <v>847.5968595997939</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822731</v>
+        <v>484.0605877582597</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>116.4377705513294</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
@@ -5534,31 +5536,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U17" t="n">
-        <v>2960.996863163376</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="V17" t="n">
-        <v>2677.383608767879</v>
+        <v>2820.623417021137</v>
       </c>
       <c r="W17" t="n">
-        <v>2372.064586445838</v>
+        <v>2515.304394699097</v>
       </c>
       <c r="X17" t="n">
-        <v>2046.048461132832</v>
+        <v>2189.28826938609</v>
       </c>
       <c r="Y17" t="n">
-        <v>1703.358762105093</v>
+        <v>1846.598570358352</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5585,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G19" t="n">
         <v>215.1557144998337</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328082</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L19" t="n">
-        <v>771.697886033711</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5692,31 +5694,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V19" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.959858232656</v>
+        <v>979.8546354718744</v>
       </c>
       <c r="D20" t="n">
-        <v>1386.143792573978</v>
+        <v>669.0385698131972</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923807</v>
+        <v>330.6999501630263</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822731</v>
+        <v>330.6999501630263</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5771,31 +5773,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W20" t="n">
-        <v>3026.328773681787</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X20" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y20" t="n">
-        <v>2357.622949341042</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5835,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254607</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G22" t="n">
         <v>215.1557144998337</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315256</v>
@@ -5914,7 +5916,7 @@
         <v>408.6327023328086</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5953,7 +5955,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
@@ -5987,28 +5989,28 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J23" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L23" t="n">
-        <v>1394.992678104633</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>1928.524582776558</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N23" t="n">
-        <v>2475.30339983534</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834458</v>
@@ -6029,7 +6031,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
         <v>2372.257749805548</v>
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
         <v>81.14691689668916</v>
@@ -6069,10 +6071,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L24" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6111,7 +6113,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D25" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F25" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
@@ -6151,7 +6153,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350173</v>
@@ -6215,13 +6217,13 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
         <v>437.4316968760676</v>
@@ -6239,16 +6241,16 @@
         <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>2826.495488321721</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6260,7 +6262,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6300,7 +6302,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2517.474464532007</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>2395.987914552173</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>2293.32090808791</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>2192.85744745359</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>2093.417132903753</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>1973.163929226545</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>1874.396375392477</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>1824.520331158895</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>1916.148348858238</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>2166.640917059521</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>2529.706100760423</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
-        <v>2920.368531612379</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>3308.28229357065</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>3654.11727774347</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>3933.230163429536</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>4057.345844834458</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>4014.965020540059</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>3870.728769314959</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>3696.411786832558</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>3454.758552906275</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>3247.523697648461</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
-        <v>3005.556160559574</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>2825.01624260963</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>2651.673296414173</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6439,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398484</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P29" t="n">
-        <v>3518.923563871313</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
-        <v>3977.401766380301</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863831</v>
@@ -6503,7 +6505,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6537,7 +6539,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6546,7 +6548,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,22 +6642,22 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6666,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6688,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.076209411489</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6783,7 +6785,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6822,7 +6824,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6853,7 +6855,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6862,7 +6864,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6886,7 +6888,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6929,43 +6931,43 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T35" t="n">
-        <v>3156.987149214238</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U35" t="n">
         <v>2950.906305436148</v>
@@ -6990,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E37" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G37" t="n">
         <v>215.1557144998337</v>
@@ -7090,16 +7092,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M37" t="n">
         <v>1162.360316885667</v>
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1812.767385564343</v>
+        <v>1364.208554989045</v>
       </c>
       <c r="C38" t="n">
-        <v>1491.254501572005</v>
+        <v>1042.695670996706</v>
       </c>
       <c r="D38" t="n">
-        <v>1180.438435913328</v>
+        <v>731.8796053380293</v>
       </c>
       <c r="E38" t="n">
-        <v>842.0998162631569</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F38" t="n">
-        <v>478.5635444216226</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G38" t="n">
-        <v>110.9407272146924</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3104.236671416634</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="U38" t="n">
-        <v>3104.236671416634</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V38" t="n">
-        <v>2820.623417021137</v>
+        <v>2677.383608767879</v>
       </c>
       <c r="W38" t="n">
-        <v>2820.623417021137</v>
+        <v>2372.064586445838</v>
       </c>
       <c r="X38" t="n">
-        <v>2494.60729170813</v>
+        <v>2046.048461132832</v>
       </c>
       <c r="Y38" t="n">
-        <v>2151.917592680392</v>
+        <v>1703.358762105093</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H40" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M40" t="n">
         <v>1162.360316885667</v>
@@ -7348,7 +7350,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q40" t="n">
         <v>2299.337630107746</v>
@@ -7372,10 +7374,10 @@
         <v>1247.547945832862</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1190.154071768027</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C41" t="n">
-        <v>1190.154071768027</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D41" t="n">
-        <v>1190.154071768027</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.953133796417</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>1904.487375535337</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>1576.753911832149</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218342</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7594,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046023</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676417</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X43" t="n">
-        <v>452.6479724696244</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1032.061124352532</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C44" t="n">
-        <v>663.0986074121208</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="D44" t="n">
-        <v>663.0986074121208</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E44" t="n">
-        <v>663.0986074121208</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F44" t="n">
-        <v>252.1127026225133</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>252.1127026225133</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7661,37 +7663,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267231</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.03470992366</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653546</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392466</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1418.660964416654</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7780,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>383.3613929424835</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="C46" t="n">
-        <v>214.4252100145766</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145766</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1887.114663531709</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1665.348048101235</v>
+        <v>1455.571844059787</v>
       </c>
       <c r="U46" t="n">
-        <v>1376.245181226878</v>
+        <v>1166.46897718543</v>
       </c>
       <c r="V46" t="n">
-        <v>1121.560693020991</v>
+        <v>911.7844889795433</v>
       </c>
       <c r="W46" t="n">
-        <v>832.1435229840309</v>
+        <v>622.3673189425826</v>
       </c>
       <c r="X46" t="n">
-        <v>604.1539720860136</v>
+        <v>394.3777680445654</v>
       </c>
       <c r="Y46" t="n">
-        <v>383.3613929424835</v>
+        <v>394.3777680445654</v>
       </c>
     </row>
   </sheetData>
@@ -8216,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>203.603853918418</v>
+        <v>203.6038539184182</v>
       </c>
       <c r="L5" t="n">
-        <v>215.3140777429006</v>
+        <v>215.3140777429009</v>
       </c>
       <c r="M5" t="n">
-        <v>207.5890673186456</v>
+        <v>207.589067318646</v>
       </c>
       <c r="N5" t="n">
-        <v>206.2876629516777</v>
+        <v>206.2876629516781</v>
       </c>
       <c r="O5" t="n">
-        <v>208.2615513518529</v>
+        <v>208.2615513518533</v>
       </c>
       <c r="P5" t="n">
-        <v>212.5959115946524</v>
+        <v>212.5959115946527</v>
       </c>
       <c r="Q5" t="n">
-        <v>208.3100158302402</v>
+        <v>208.3100158302404</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>120.2861621969143</v>
+        <v>120.2861621969144</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6439426936444</v>
+        <v>126.6439426936446</v>
       </c>
       <c r="L6" t="n">
-        <v>123.4979641735842</v>
+        <v>123.4979641735845</v>
       </c>
       <c r="M6" t="n">
-        <v>124.5639070747227</v>
+        <v>124.563907074723</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3065562599339</v>
+        <v>113.3065562599342</v>
       </c>
       <c r="O6" t="n">
-        <v>126.0976003197215</v>
+        <v>126.0976003197217</v>
       </c>
       <c r="P6" t="n">
-        <v>120.7327909580803</v>
+        <v>120.7327909580806</v>
       </c>
       <c r="Q6" t="n">
-        <v>131.1301041576211</v>
+        <v>131.1301041576212</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>126.2415162733973</v>
+        <v>126.2415162733975</v>
       </c>
       <c r="M7" t="n">
-        <v>129.8127835797928</v>
+        <v>129.8127835797929</v>
       </c>
       <c r="N7" t="n">
-        <v>118.7892308776102</v>
+        <v>118.7892308776103</v>
       </c>
       <c r="O7" t="n">
-        <v>130.2393529435934</v>
+        <v>130.2393529435935</v>
       </c>
       <c r="P7" t="n">
-        <v>130.6967822841778</v>
+        <v>130.6967822841779</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>343.5485285966298</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>277.220684154414</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>21.1383958559137</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>187.8883066283062</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>21.13839585591369</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>342.9371040273959</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>240.9710754359427</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>166.6513331554027</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>17.25767630162272</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23498,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>11.0323480446433</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>106.4010846217538</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23741,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>340.0136403614991</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>198.2062301907733</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>102.4006336413265</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>5.981554650712042</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25205,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>52.22297301962794</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>52.22297301962692</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25397,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>283.7749563287286</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>203.648303094044</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>64.81119518318258</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>61.78180958989759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.14213605696557</v>
+        <v>155.6308914313327</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>224.0966257588129</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>110.8631840588939</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26040,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>149.9909396202251</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>31.24465028923933</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>765657.7806632796</v>
+        <v>765657.7806632797</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>641717.0745293421</v>
+        <v>641717.074529342</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>641717.074529342</v>
+        <v>641717.0745293421</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>573624.2046722408</v>
+        <v>573624.2046722409</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132603</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="C2" t="n">
-        <v>757840.1559876581</v>
+        <v>757840.155987658</v>
       </c>
       <c r="D2" t="n">
-        <v>757900.1082045457</v>
+        <v>757900.1082045459</v>
       </c>
       <c r="E2" t="n">
-        <v>707191.1841481037</v>
+        <v>707191.184148104</v>
       </c>
       <c r="F2" t="n">
-        <v>707191.1841481045</v>
+        <v>707191.1841481047</v>
       </c>
       <c r="G2" t="n">
+        <v>707191.1841481042</v>
+      </c>
+      <c r="H2" t="n">
         <v>707191.1841481047</v>
       </c>
-      <c r="H2" t="n">
-        <v>707191.1841481046</v>
-      </c>
       <c r="I2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244614</v>
       </c>
       <c r="J2" t="n">
-        <v>759463.6371244612</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="K2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="M2" t="n">
-        <v>707191.1841481046</v>
+        <v>707191.1841481042</v>
       </c>
       <c r="N2" t="n">
-        <v>707191.184148104</v>
+        <v>707191.1841481047</v>
       </c>
       <c r="O2" t="n">
-        <v>630844.6330962031</v>
+        <v>630844.6330962033</v>
       </c>
       <c r="P2" t="n">
-        <v>630844.6330962033</v>
+        <v>630844.6330962032</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>29356.68375669926</v>
+        <v>29356.68375669877</v>
       </c>
       <c r="D3" t="n">
-        <v>173459.18200503</v>
+        <v>173459.1820050305</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621993</v>
+        <v>972725.1766621997</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902299</v>
+        <v>48646.25967902289</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161600.4331051143</v>
+        <v>161600.4331051144</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="C4" t="n">
-        <v>432293.8753204607</v>
+        <v>432293.8753204609</v>
       </c>
       <c r="D4" t="n">
-        <v>374928.5597385823</v>
+        <v>374928.5597385824</v>
       </c>
       <c r="E4" t="n">
-        <v>58825.50137861088</v>
+        <v>58825.5013786108</v>
       </c>
       <c r="F4" t="n">
-        <v>58825.50137861088</v>
+        <v>58825.50137861081</v>
       </c>
       <c r="G4" t="n">
+        <v>58825.50137861082</v>
+      </c>
+      <c r="H4" t="n">
+        <v>58825.50137861082</v>
+      </c>
+      <c r="I4" t="n">
+        <v>84858.15940173084</v>
+      </c>
+      <c r="J4" t="n">
+        <v>84858.15940173093</v>
+      </c>
+      <c r="K4" t="n">
+        <v>84858.15940173094</v>
+      </c>
+      <c r="L4" t="n">
+        <v>84858.15940173088</v>
+      </c>
+      <c r="M4" t="n">
+        <v>58825.50137861083</v>
+      </c>
+      <c r="N4" t="n">
         <v>58825.50137861084</v>
-      </c>
-      <c r="H4" t="n">
-        <v>58825.50137861078</v>
-      </c>
-      <c r="I4" t="n">
-        <v>84858.15940173085</v>
-      </c>
-      <c r="J4" t="n">
-        <v>84858.15940173085</v>
-      </c>
-      <c r="K4" t="n">
-        <v>84858.15940173084</v>
-      </c>
-      <c r="L4" t="n">
-        <v>84858.15940173084</v>
-      </c>
-      <c r="M4" t="n">
-        <v>58825.5013786108</v>
-      </c>
-      <c r="N4" t="n">
-        <v>58825.50137861083</v>
       </c>
       <c r="O4" t="n">
         <v>11600.2349971284</v>
@@ -26470,13 +26472,13 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34330.40507389182</v>
+        <v>34330.40507389181</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
@@ -26485,22 +26487,22 @@
         <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="N5" t="n">
         <v>78255.49332178176</v>
@@ -26509,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282553.7633174397</v>
+        <v>282553.7633174399</v>
       </c>
       <c r="C6" t="n">
-        <v>261859.1918366063</v>
+        <v>261859.1918366065</v>
       </c>
       <c r="D6" t="n">
-        <v>170766.5616297867</v>
+        <v>170766.5616297864</v>
       </c>
       <c r="E6" t="n">
         <v>-402614.9872144882</v>
       </c>
       <c r="F6" t="n">
-        <v>570110.1894477119</v>
+        <v>570110.1894477122</v>
       </c>
       <c r="G6" t="n">
-        <v>570110.1894477122</v>
+        <v>570110.1894477118</v>
       </c>
       <c r="H6" t="n">
         <v>570110.1894477122</v>
       </c>
       <c r="I6" t="n">
-        <v>536581.2763689011</v>
+        <v>536581.2763689014</v>
       </c>
       <c r="J6" t="n">
-        <v>547647.4267530502</v>
+        <v>547647.4267530504</v>
       </c>
       <c r="K6" t="n">
-        <v>585227.5360479254</v>
+        <v>585227.5360479245</v>
       </c>
       <c r="L6" t="n">
-        <v>585227.5360479249</v>
+        <v>585227.536047925</v>
       </c>
       <c r="M6" t="n">
-        <v>408509.7563425978</v>
+        <v>408509.7563425972</v>
       </c>
       <c r="N6" t="n">
-        <v>570110.1894477115</v>
+        <v>570110.1894477122</v>
       </c>
       <c r="O6" t="n">
-        <v>544938.0575376814</v>
+        <v>544938.0575376817</v>
       </c>
       <c r="P6" t="n">
-        <v>544938.0575376817</v>
+        <v>544938.0575376815</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,16 +26740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.23876485742318</v>
+        <v>32.23876485742264</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.23876485742318</v>
+        <v>32.23876485742264</v>
       </c>
       <c r="D3" t="n">
-        <v>202.541273268571</v>
+        <v>202.5412732685716</v>
       </c>
       <c r="E3" t="n">
-        <v>854.9966624673041</v>
+        <v>854.9966624673043</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063221</v>
+        <v>182.9350058063218</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27634,10 +27636,10 @@
         <v>338.1475046259337</v>
       </c>
       <c r="I5" t="n">
-        <v>205.4793670290358</v>
+        <v>205.4793670290359</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9493903844910268</v>
+        <v>0.9493903844912115</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.727938793511</v>
+        <v>141.7279387935112</v>
       </c>
       <c r="S5" t="n">
         <v>206.0667395191558</v>
@@ -27713,7 +27715,7 @@
         <v>111.5657295174772</v>
       </c>
       <c r="I6" t="n">
-        <v>87.00913941621911</v>
+        <v>87.00913941621916</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.8524383477216</v>
+        <v>95.85243834772167</v>
       </c>
       <c r="S6" t="n">
-        <v>170.3951412059964</v>
+        <v>170.3951412059965</v>
       </c>
       <c r="T6" t="n">
         <v>199.8852246862936</v>
@@ -27789,16 +27791,16 @@
         <v>167.932843880847</v>
       </c>
       <c r="H7" t="n">
-        <v>161.7102952610369</v>
+        <v>161.710295261037</v>
       </c>
       <c r="I7" t="n">
         <v>153.7021825641705</v>
       </c>
       <c r="J7" t="n">
-        <v>89.24900184952229</v>
+        <v>89.24900184952236</v>
       </c>
       <c r="K7" t="n">
-        <v>15.51520633608174</v>
+        <v>15.51520633608185</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.29398975822349</v>
+        <v>81.29398975822357</v>
       </c>
       <c r="R7" t="n">
         <v>174.6794089020086</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1296030748037112</v>
+        <v>0.129603074803709</v>
       </c>
       <c r="H5" t="n">
-        <v>1.327297489833507</v>
+        <v>1.327297489833485</v>
       </c>
       <c r="I5" t="n">
-        <v>4.99652254137008</v>
+        <v>4.996522541369996</v>
       </c>
       <c r="J5" t="n">
-        <v>10.99989897012149</v>
+        <v>10.99989897012131</v>
       </c>
       <c r="K5" t="n">
-        <v>16.48599712656259</v>
+        <v>16.48599712656231</v>
       </c>
       <c r="L5" t="n">
-        <v>20.45233722708667</v>
+        <v>20.45233722708632</v>
       </c>
       <c r="M5" t="n">
-        <v>22.75716590862717</v>
+        <v>22.75716590862679</v>
       </c>
       <c r="N5" t="n">
-        <v>23.12540064491321</v>
+        <v>23.12540064491282</v>
       </c>
       <c r="O5" t="n">
-        <v>21.83666006983381</v>
+        <v>21.83666006983344</v>
       </c>
       <c r="P5" t="n">
-        <v>18.63708416061719</v>
+        <v>18.63708416061687</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.99567404420927</v>
+        <v>13.99567404420904</v>
       </c>
       <c r="R5" t="n">
-        <v>8.141179147638629</v>
+        <v>8.141179147638493</v>
       </c>
       <c r="S5" t="n">
-        <v>2.953330067089571</v>
+        <v>2.953330067089522</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5673374599532459</v>
+        <v>0.5673374599532365</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01036824598429689</v>
+        <v>0.01036824598429672</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0693437583725706</v>
+        <v>0.06934375837256945</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6697147190193005</v>
+        <v>0.6697147190192893</v>
       </c>
       <c r="I6" t="n">
-        <v>2.387493435195962</v>
+        <v>2.387493435195922</v>
       </c>
       <c r="J6" t="n">
-        <v>6.551464469752385</v>
+        <v>6.551464469752275</v>
       </c>
       <c r="K6" t="n">
-        <v>11.19749628071462</v>
+        <v>11.19749628071443</v>
       </c>
       <c r="L6" t="n">
-        <v>15.05641560628995</v>
+        <v>15.0564156062897</v>
       </c>
       <c r="M6" t="n">
-        <v>17.57012684729563</v>
+        <v>17.57012684729533</v>
       </c>
       <c r="N6" t="n">
-        <v>18.03515582339941</v>
+        <v>18.0351558233991</v>
       </c>
       <c r="O6" t="n">
-        <v>16.49864412472297</v>
+        <v>16.49864412472269</v>
       </c>
       <c r="P6" t="n">
-        <v>13.24161645624991</v>
+        <v>13.24161645624969</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.851669928400417</v>
+        <v>8.85166992840027</v>
       </c>
       <c r="R6" t="n">
-        <v>4.305395804921535</v>
+        <v>4.305395804921463</v>
       </c>
       <c r="S6" t="n">
-        <v>1.288029897841388</v>
+        <v>1.288029897841366</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2795040085280367</v>
+        <v>0.279504008528032</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004562089366616489</v>
+        <v>0.004562089366616413</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05813547761174671</v>
+        <v>0.05813547761174574</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5168772464026211</v>
+        <v>0.5168772464026125</v>
       </c>
       <c r="I7" t="n">
-        <v>1.748292363087802</v>
+        <v>1.748292363087772</v>
       </c>
       <c r="J7" t="n">
-        <v>4.110178267150492</v>
+        <v>4.110178267150423</v>
       </c>
       <c r="K7" t="n">
-        <v>6.754285489801116</v>
+        <v>6.754285489801003</v>
       </c>
       <c r="L7" t="n">
-        <v>8.643160007840962</v>
+        <v>8.643160007840818</v>
       </c>
       <c r="M7" t="n">
-        <v>9.113000367812258</v>
+        <v>9.113000367812106</v>
       </c>
       <c r="N7" t="n">
-        <v>8.896313587623027</v>
+        <v>8.896313587622878</v>
       </c>
       <c r="O7" t="n">
-        <v>8.217185508249438</v>
+        <v>8.217185508249299</v>
       </c>
       <c r="P7" t="n">
-        <v>7.031221764969799</v>
+        <v>7.031221764969681</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.868053493470899</v>
+        <v>4.868053493470818</v>
       </c>
       <c r="R7" t="n">
-        <v>2.613982475160901</v>
+        <v>2.613982475160857</v>
       </c>
       <c r="S7" t="n">
-        <v>1.013142823470167</v>
+        <v>1.01314282347015</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2483970407047359</v>
+        <v>0.2483970407047317</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003171026051549824</v>
+        <v>0.003171026051549771</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32318,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32555,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33266,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33503,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574987</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629122</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35966,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M19" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
@@ -36139,7 +36141,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037181</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36203,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36288,7 +36290,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>799.1386429889619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,16 +36372,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737858</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36525,13 +36527,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36607,16 +36609,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>529.1913967441328</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36765,13 +36767,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36847,13 +36849,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>586.6502928476781</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>80.75159439813847</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120764</v>
@@ -37002,13 +37004,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,16 +37083,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>850.990104915615</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>639.7330616553146</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37324,7 +37326,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,7 +37478,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P37" t="n">
         <v>281.932207763703</v>
@@ -37543,7 +37545,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37704,7 +37706,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.921115830226</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_18_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3162222.247210732</v>
+        <v>3154677.34097635</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10907410.15957845</v>
+        <v>10747230.11886605</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555926.377790769</v>
+        <v>881594.0812127455</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7867393.028892414</v>
+        <v>8029525.440183534</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>346.6889127332382</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1429,16 +1429,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.2628020374611</v>
+        <v>255.3342916587921</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043383</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D14" t="n">
-        <v>296.6755569574472</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>138.8095756935399</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515424</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H17" t="n">
-        <v>49.42639757795455</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>241.6510731180178</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,25 +2004,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F19" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2058,7 +2058,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2067,7 +2067,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y19" t="n">
         <v>171.6095167335022</v>
@@ -2083,22 +2083,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G20" t="n">
-        <v>261.5459553935344</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>163.7041173900602</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U20" t="n">
         <v>204.0200353403094</v>
@@ -2143,10 +2143,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D22" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F22" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T22" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V22" t="n">
         <v>205.1625067052354</v>
@@ -2304,7 +2304,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y22" t="n">
         <v>171.6095167335022</v>
@@ -2320,22 +2320,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U23" t="n">
         <v>204.0200353403093</v>
@@ -2380,10 +2380,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2478,25 +2478,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2532,7 +2532,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2541,7 +2541,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y25" t="n">
         <v>171.6095167335022</v>
@@ -2557,22 +2557,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695846</v>
+        <v>62.21262516958415</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2617,10 +2617,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2715,25 +2715,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404365</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2769,7 +2769,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870216</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2778,7 +2778,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2794,22 +2794,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210282</v>
+        <v>156.9428335210287</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2952,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124548</v>
+        <v>49.3772837912454</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3006,16 +3006,16 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052367</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3085,7 +3085,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403102</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3207,7 +3207,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>235.6978389621982</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>200.6574911501354</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>15.23748855099075</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U35" t="n">
-        <v>151.7970623206825</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>54.66519978102727</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>52.48368940938408</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>79.55397677152321</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>50.80474167713569</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>2.402147172653009</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>95.81875209425681</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>192.2615649684278</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E38" t="n">
-        <v>51.18027712494056</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>200.6574911501354</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>72.92292758054579</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>85.88170694475221</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>73.29654786144275</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>54.66519978102727</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>52.48368940938408</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>51.47077478574616</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>72.07553502184314</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>53.26506285967788</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124553</v>
+        <v>2.402147172653009</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128492</v>
+        <v>95.81875209425681</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870209</v>
+        <v>192.2615649684278</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>317.922646480298</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>43.98432467468362</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.95376192076215</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>141.1762660121947</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>241.6510731180165</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>188.3042989869299</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1690.224680302052</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C11" t="n">
-        <v>1368.711796309713</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D11" t="n">
-        <v>1368.711796309713</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E11" t="n">
-        <v>1030.373176659542</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>666.836904818008</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163377</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2677.38360876788</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
-        <v>2372.064586445839</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>2372.064586445839</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y11" t="n">
-        <v>2029.3748874181</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064535</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031474</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052942</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E13" t="n">
         <v>434.8492327268782</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315256</v>
@@ -5205,7 +5205,7 @@
         <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5232,19 +5232,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874607</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1301.367519464213</v>
+        <v>1650.849925018063</v>
       </c>
       <c r="C14" t="n">
-        <v>979.8546354718744</v>
+        <v>1329.337041025725</v>
       </c>
       <c r="D14" t="n">
-        <v>680.1823557168773</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E14" t="n">
-        <v>680.1823557168773</v>
+        <v>680.1823557168771</v>
       </c>
       <c r="F14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,7 +5290,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5311,19 +5311,19 @@
         <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2964.024978796897</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2964.024978796897</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>2658.705956474857</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425608</v>
+        <v>2332.68983116185</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580261</v>
+        <v>1990.000132134112</v>
       </c>
     </row>
     <row r="15">
@@ -5357,13 +5357,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
         <v>771.6978860337115</v>
@@ -5448,40 +5448,40 @@
         <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1507.448363242303</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C17" t="n">
-        <v>1185.935479249965</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D17" t="n">
-        <v>1185.935479249965</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E17" t="n">
-        <v>847.5968595997939</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F17" t="n">
-        <v>484.0605877582597</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G17" t="n">
-        <v>116.4377705513294</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5518,7 +5518,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5527,7 +5527,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2820.623417021137</v>
+        <v>3081.513828560668</v>
       </c>
       <c r="W17" t="n">
-        <v>2515.304394699097</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X17" t="n">
-        <v>2189.28826938609</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y17" t="n">
-        <v>1846.598570358352</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5658,28 +5658,28 @@
         <v>535.3126933611984</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5697,16 +5697,16 @@
         <v>2299.337630107746</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T19" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V19" t="n">
         <v>1489.515482921749</v>
@@ -5731,19 +5731,19 @@
         <v>1301.367519464213</v>
       </c>
       <c r="C20" t="n">
-        <v>979.8546354718744</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="D20" t="n">
-        <v>669.0385698131972</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="E20" t="n">
-        <v>330.6999501630263</v>
+        <v>963.028899814042</v>
       </c>
       <c r="F20" t="n">
-        <v>330.6999501630263</v>
+        <v>599.4926279725078</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>231.8698107655776</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,13 +5752,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5837,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052946</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C22" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5925,37 +5925,37 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107744</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813345</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D23" t="n">
         <v>1400.778593038484</v>
@@ -5977,61 +5977,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991692</v>
       </c>
       <c r="K23" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890157</v>
       </c>
       <c r="L23" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M23" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N23" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O23" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y23" t="n">
         <v>2372.257749805548</v>
@@ -6065,16 +6065,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6123,58 +6123,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913843</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973131</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982159</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T25" t="n">
         <v>1953.038372570351</v>
@@ -6183,7 +6183,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W25" t="n">
         <v>1262.182746297367</v>
@@ -6192,7 +6192,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="26">
@@ -6217,40 +6217,40 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6302,7 +6302,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899673</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257049</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913851</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.043718641548</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6417,19 +6417,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519673</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910142</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.09431497013</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O29" t="n">
-        <v>2959.066785849467</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P29" t="n">
         <v>3539.850575768668</v>
@@ -6487,25 +6487,25 @@
         <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6539,7 +6539,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6548,7 +6548,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
         <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6642,22 +6642,22 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6666,7 +6666,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>282.5873354070228</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>937.3106675423223</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198916</v>
+        <v>1388.344880790731</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N32" t="n">
-        <v>2548.674958929623</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O32" t="n">
-        <v>3051.64742980896</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P32" t="n">
         <v>3684.983160847721</v>
@@ -6724,7 +6724,7 @@
         <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
@@ -6733,7 +6733,7 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6776,7 +6776,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6785,7 +6785,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6855,7 +6855,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6888,7 +6888,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1680.134122574823</v>
+        <v>1680.964583048798</v>
       </c>
       <c r="C35" t="n">
-        <v>1358.621238582484</v>
+        <v>1406.901332004533</v>
       </c>
       <c r="D35" t="n">
-        <v>1047.805172923807</v>
+        <v>1143.534899293929</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.805172923807</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F35" t="n">
-        <v>684.2689010822731</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G35" t="n">
-        <v>316.6460838753429</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6949,40 +6949,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.76478608434</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T35" t="n">
-        <v>3104.236671416635</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U35" t="n">
-        <v>2950.906305436148</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V35" t="n">
-        <v>2667.29305104065</v>
+        <v>2804.34110503534</v>
       </c>
       <c r="W35" t="n">
-        <v>2361.97402871861</v>
+        <v>2546.471715661372</v>
       </c>
       <c r="X35" t="n">
-        <v>2361.97402871861</v>
+        <v>2267.905223296439</v>
       </c>
       <c r="Y35" t="n">
-        <v>2019.284329690871</v>
+        <v>1972.665157216773</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052944</v>
+        <v>624.671332526408</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254608</v>
+        <v>455.7351495985012</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611984</v>
+        <v>400.517776082312</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268785</v>
+        <v>347.5039483960654</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770415</v>
+        <v>200.6140008981551</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998337</v>
+        <v>120.2564486036872</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657648</v>
+        <v>68.93852771769151</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315256</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328087</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337115</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813347</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588247</v>
+        <v>1740.677472568994</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105846</v>
+        <v>1613.810123034666</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179563</v>
+        <v>1419.606522056456</v>
       </c>
       <c r="V37" t="n">
-        <v>1489.515482921749</v>
+        <v>1259.821299746716</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832862</v>
+        <v>1065.303395605902</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882918</v>
+        <v>932.2131106040313</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874608</v>
+        <v>806.3197973566478</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1364.208554989045</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C38" t="n">
-        <v>1042.695670996706</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D38" t="n">
-        <v>731.8796053380293</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E38" t="n">
-        <v>680.1823557168772</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F38" t="n">
-        <v>316.6460838753429</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G38" t="n">
-        <v>316.6460838753429</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3167.077706941467</v>
+        <v>3251.946298800538</v>
       </c>
       <c r="U38" t="n">
-        <v>2960.996863163376</v>
+        <v>3093.31508797052</v>
       </c>
       <c r="V38" t="n">
-        <v>2677.383608767879</v>
+        <v>2857.151466523096</v>
       </c>
       <c r="W38" t="n">
-        <v>2372.064586445838</v>
+        <v>2599.282077149128</v>
       </c>
       <c r="X38" t="n">
-        <v>2046.048461132832</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y38" t="n">
-        <v>1703.358762105093</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064542</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052941</v>
+        <v>429.8039920804403</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254604</v>
+        <v>355.7670750486799</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611981</v>
+        <v>300.5497015324908</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268783</v>
+        <v>247.5358738462442</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770412</v>
+        <v>195.5451922444804</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998338</v>
+        <v>122.7416215153459</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657648</v>
+        <v>68.93852771769149</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315257</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328087</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337115</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702825</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813347</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588247</v>
+        <v>1830.507929811466</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105846</v>
+        <v>1608.741314380992</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179563</v>
+        <v>1414.537713402782</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.515482921749</v>
+        <v>1159.853225196895</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832862</v>
+        <v>870.4360551599343</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882917</v>
+        <v>642.446504261917</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874605</v>
+        <v>516.5531910145335</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1888.09808975843</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C41" t="n">
-        <v>1519.135572818019</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D41" t="n">
-        <v>1160.869874211268</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E41" t="n">
-        <v>775.0816216130238</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2820.623417021136</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339057</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077977</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102166</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.294548088493</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V43" t="n">
-        <v>1672.610059882606</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>1383.192889845645</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X43" t="n">
-        <v>1155.203338947628</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>1091.613680441807</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796265</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C44" t="n">
-        <v>779.1681669784198</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D44" t="n">
-        <v>779.1681669784198</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E44" t="n">
-        <v>779.1681669784198</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912074</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810539</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>3081.513828560668</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943748</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064581</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>212.7293032143257</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C46" t="n">
-        <v>212.7293032143257</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D46" t="n">
-        <v>212.7293032143257</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E46" t="n">
-        <v>212.7293032143257</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F46" t="n">
-        <v>212.7293032143257</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T46" t="n">
-        <v>1455.571844059787</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U46" t="n">
-        <v>1166.46897718543</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V46" t="n">
-        <v>911.7844889795433</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>622.3673189425826</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X46" t="n">
-        <v>394.3777680445654</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>394.3777680445654</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
   </sheetData>
@@ -8218,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>203.6038539184182</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>215.3140777429009</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>207.589067318646</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>206.2876629516781</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>208.2615513518533</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>212.5959115946527</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>208.3100158302404</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>120.2861621969144</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6439426936446</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>123.4979641735845</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>124.563907074723</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3065562599342</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>126.0976003197217</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>120.7327909580806</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>131.1301041576212</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>126.2415162733975</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>129.8127835797929</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>118.7892308776103</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>130.2393529435935</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>130.6967822841779</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100.9387195582597</v>
+        <v>131.4051496618625</v>
       </c>
       <c r="K8" t="n">
-        <v>100.0299464227919</v>
+        <v>145.6912275408189</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318189</v>
+        <v>143.4683437367651</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323866</v>
+        <v>127.6468450459093</v>
       </c>
       <c r="N8" t="n">
-        <v>61.00144891149961</v>
+        <v>125.0518919455483</v>
       </c>
       <c r="O8" t="n">
-        <v>71.07189926570237</v>
+        <v>131.5529163660236</v>
       </c>
       <c r="P8" t="n">
-        <v>95.50771753390021</v>
+        <v>147.12686635124</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.3816583481039</v>
+        <v>159.1454893777265</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>79.12633608862856</v>
+        <v>97.27193314239341</v>
       </c>
       <c r="K9" t="n">
-        <v>56.29524403393702</v>
+        <v>87.30895958699679</v>
       </c>
       <c r="L9" t="n">
-        <v>28.90545725697471</v>
+        <v>70.607225148281</v>
       </c>
       <c r="M9" t="n">
-        <v>14.17891314335149</v>
+        <v>62.84290932718676</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>49.95198735858139</v>
       </c>
       <c r="O9" t="n">
-        <v>22.44423757443683</v>
+        <v>68.1405470946811</v>
       </c>
       <c r="P9" t="n">
-        <v>37.54182911310821</v>
+        <v>74.21714616091538</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.5191492782957</v>
+        <v>100.0356274665308</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>79.82491575659759</v>
+        <v>98.53226637261247</v>
       </c>
       <c r="L10" t="n">
-        <v>71.94053294496764</v>
+        <v>95.87950101807463</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962936</v>
+        <v>97.80029556172205</v>
       </c>
       <c r="N10" t="n">
-        <v>62.89780050171086</v>
+        <v>87.53792827318023</v>
       </c>
       <c r="O10" t="n">
-        <v>78.61457070130248</v>
+        <v>101.3737168185012</v>
       </c>
       <c r="P10" t="n">
-        <v>86.52286261917671</v>
+        <v>105.9972438864272</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550046</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>277.220684154414</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>287.0017854473909</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>190.2350110279875</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>187.8883066283062</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>12.68816924374568</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>240.9710754359427</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.17313444033134</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.35889816588482</v>
+        <v>14.71785991911951</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>17.25767630162272</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>83.92851037866888</v>
       </c>
     </row>
     <row r="12">
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>11.0323480446433</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536693</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>65.21045964676949</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>198.2062301907733</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>39.12604873352444</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>102.4006336413265</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>83.9285103786676</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>52.28225787287846</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>52.22297301962692</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>283.7749563287286</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>15.23748855099075</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>37.04476932188928</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>64.81119518318258</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>258.2815074241369</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.6308914313327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0966257588129</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>39.12604873352583</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>31.24465028923933</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>765657.7806632797</v>
+        <v>772659.6444198588</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>716413.7041337272</v>
+        <v>738212.1636531234</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>641717.074529342</v>
+        <v>641717.0745293421</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>641717.0745293421</v>
+        <v>684905.0756337437</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>641717.0745293421</v>
+        <v>684905.0756337434</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>573624.2046722409</v>
+        <v>641717.074529342</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>573624.2046722409</v>
+        <v>641717.074529342</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132605</v>
       </c>
       <c r="C2" t="n">
-        <v>757840.155987658</v>
+        <v>757830.6133132605</v>
       </c>
       <c r="D2" t="n">
-        <v>757900.1082045459</v>
+        <v>757873.6778506552</v>
       </c>
       <c r="E2" t="n">
+        <v>707191.1841481042</v>
+      </c>
+      <c r="F2" t="n">
         <v>707191.184148104</v>
       </c>
-      <c r="F2" t="n">
-        <v>707191.1841481047</v>
-      </c>
       <c r="G2" t="n">
-        <v>707191.1841481042</v>
+        <v>707191.1841481044</v>
       </c>
       <c r="H2" t="n">
-        <v>707191.1841481047</v>
+        <v>707191.184148104</v>
       </c>
       <c r="I2" t="n">
         <v>759463.6371244614</v>
@@ -26340,22 +26340,22 @@
         <v>759463.6371244616</v>
       </c>
       <c r="K2" t="n">
-        <v>759463.6371244617</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="L2" t="n">
         <v>759463.6371244619</v>
       </c>
       <c r="M2" t="n">
-        <v>707191.1841481042</v>
+        <v>755614.0944772816</v>
       </c>
       <c r="N2" t="n">
-        <v>707191.1841481047</v>
+        <v>755614.0944772818</v>
       </c>
       <c r="O2" t="n">
-        <v>630844.6330962033</v>
+        <v>707191.1841481037</v>
       </c>
       <c r="P2" t="n">
-        <v>630844.6330962032</v>
+        <v>707191.1841481045</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>29356.68375669877</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>173459.1820050305</v>
+        <v>124598.2186766203</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621997</v>
+        <v>1044462.425333909</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902289</v>
+        <v>48646.25967902283</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161600.4331051144</v>
+        <v>199180.5423999883</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>441649.2499958205</v>
       </c>
       <c r="C4" t="n">
-        <v>432293.8753204609</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>374928.5597385824</v>
+        <v>400194.611518283</v>
       </c>
       <c r="E4" t="n">
-        <v>58825.5013786108</v>
+        <v>58825.50137861088</v>
       </c>
       <c r="F4" t="n">
-        <v>58825.50137861081</v>
+        <v>58825.50137861086</v>
       </c>
       <c r="G4" t="n">
+        <v>58825.50137861089</v>
+      </c>
+      <c r="H4" t="n">
+        <v>58825.50137861086</v>
+      </c>
+      <c r="I4" t="n">
+        <v>84858.15940173087</v>
+      </c>
+      <c r="J4" t="n">
+        <v>84858.15940173085</v>
+      </c>
+      <c r="K4" t="n">
+        <v>84858.15940173084</v>
+      </c>
+      <c r="L4" t="n">
+        <v>84858.15940173087</v>
+      </c>
+      <c r="M4" t="n">
+        <v>88588.66807031282</v>
+      </c>
+      <c r="N4" t="n">
+        <v>88588.66807031279</v>
+      </c>
+      <c r="O4" t="n">
+        <v>58825.50137861078</v>
+      </c>
+      <c r="P4" t="n">
         <v>58825.50137861082</v>
-      </c>
-      <c r="H4" t="n">
-        <v>58825.50137861082</v>
-      </c>
-      <c r="I4" t="n">
-        <v>84858.15940173084</v>
-      </c>
-      <c r="J4" t="n">
-        <v>84858.15940173093</v>
-      </c>
-      <c r="K4" t="n">
-        <v>84858.15940173094</v>
-      </c>
-      <c r="L4" t="n">
-        <v>84858.15940173088</v>
-      </c>
-      <c r="M4" t="n">
-        <v>58825.50137861083</v>
-      </c>
-      <c r="N4" t="n">
-        <v>58825.50137861084</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11600.2349971284</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11600.2349971284</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34330.40507389181</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38745.80483114667</v>
+        <v>36799.24498379327</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
@@ -26490,28 +26490,28 @@
         <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
-      <c r="J5" t="n">
-        <v>89377.94167480613</v>
-      </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178176</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178176</v>
+        <v>82204.64608217019</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>78255.49332178175</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282553.7633174399</v>
+        <v>282509.6275387589</v>
       </c>
       <c r="C6" t="n">
-        <v>261859.1918366065</v>
+        <v>282509.6275387589</v>
       </c>
       <c r="D6" t="n">
-        <v>170766.5616297864</v>
+        <v>196238.6307996936</v>
       </c>
       <c r="E6" t="n">
-        <v>-402614.9872144882</v>
+        <v>-475765.0048855583</v>
       </c>
       <c r="F6" t="n">
-        <v>570110.1894477122</v>
+        <v>568697.4204483503</v>
       </c>
       <c r="G6" t="n">
-        <v>570110.1894477118</v>
+        <v>568697.4204483508</v>
       </c>
       <c r="H6" t="n">
-        <v>570110.1894477122</v>
+        <v>568697.4204483505</v>
       </c>
       <c r="I6" t="n">
-        <v>536581.2763689014</v>
+        <v>536581.2763689016</v>
       </c>
       <c r="J6" t="n">
-        <v>547647.4267530504</v>
+        <v>547647.4267530506</v>
       </c>
       <c r="K6" t="n">
-        <v>585227.5360479245</v>
+        <v>585227.5360479255</v>
       </c>
       <c r="L6" t="n">
         <v>585227.536047925</v>
       </c>
       <c r="M6" t="n">
-        <v>408509.7563425972</v>
+        <v>385536.1962316433</v>
       </c>
       <c r="N6" t="n">
-        <v>570110.1894477122</v>
+        <v>584716.7386316317</v>
       </c>
       <c r="O6" t="n">
-        <v>544938.0575376817</v>
+        <v>568697.4204483503</v>
       </c>
       <c r="P6" t="n">
-        <v>544938.0575376815</v>
+        <v>568697.420448351</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>93.95027323718509</v>
+      </c>
+      <c r="N2" t="n">
+        <v>93.95027323718509</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>46.97513661859254</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859261</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859261</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,16 +26740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.23876485742264</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>234.7800381259942</v>
+        <v>145.4883020088653</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
@@ -26810,7 +26810,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26822,16 +26822,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>32.23876485742264</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>202.5412732685716</v>
+        <v>145.4883020088653</v>
       </c>
       <c r="E3" t="n">
-        <v>854.9966624673043</v>
+        <v>944.2883985844328</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063218</v>
+        <v>182.9350058063216</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959712</v>
+        <v>648.4664495959706</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.1475046259337</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>205.4793670290359</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9493903844912115</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>141.7279387935112</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>206.0667395191558</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>222.5285121041781</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3352846618522</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2741734048381</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5657295174772</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>87.00913941621916</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.85243834772167</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>170.3951412059965</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8852246862936</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9368199916082</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27788,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.932843880847</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>161.710295261037</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7021825641705</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>89.24900184952236</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>15.51520633608185</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.29398975822357</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>174.6794089020086</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.0034552135021</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6971923875768</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3158583304393</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.8087073802583</v>
+        <v>333.484924435573</v>
       </c>
       <c r="I8" t="n">
-        <v>174.0885230584365</v>
+        <v>187.9273960500169</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>90.58066941881005</v>
+        <v>113.1293006504386</v>
       </c>
       <c r="S8" t="n">
-        <v>187.5123304152058</v>
+        <v>195.6921713670413</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9641928127885</v>
+        <v>220.5355478875733</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2988627001552</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8385185906377</v>
+        <v>137.0305800607765</v>
       </c>
       <c r="H9" t="n">
-        <v>107.3582211803319</v>
+        <v>109.2131306419349</v>
       </c>
       <c r="I9" t="n">
-        <v>72.00962059397116</v>
+        <v>78.62226331585288</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>68.80362453272261</v>
+        <v>80.72828317870447</v>
       </c>
       <c r="S9" t="n">
-        <v>162.3030441088983</v>
+        <v>165.8705016792383</v>
       </c>
       <c r="T9" t="n">
-        <v>198.1292300623896</v>
+        <v>198.9033725670278</v>
       </c>
       <c r="U9" t="n">
-        <v>225.908158490674</v>
+        <v>225.9207941137094</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5676055192152</v>
+        <v>167.7286234040165</v>
       </c>
       <c r="H10" t="n">
-        <v>158.4629941912556</v>
+        <v>159.8945895670352</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7184689252781</v>
+        <v>147.5607158609415</v>
       </c>
       <c r="J10" t="n">
-        <v>63.42664968215054</v>
+        <v>74.8106141376081</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.71025749466926</v>
+        <v>64.19330964835572</v>
       </c>
       <c r="R10" t="n">
-        <v>158.2569640235438</v>
+        <v>165.4969136437949</v>
       </c>
       <c r="S10" t="n">
-        <v>216.6383466748816</v>
+        <v>219.4444492672838</v>
       </c>
       <c r="T10" t="n">
-        <v>226.1366284787861</v>
+        <v>226.8246139865738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2959362379867</v>
+        <v>286.3047190317031</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859148</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859091</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859125</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>86.47183148750501</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859233</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>91.48995205464291</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.129603074803709</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.327297489833485</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.996522541369996</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.99989897012131</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>16.48599712656231</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>20.45233722708632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>22.75716590862679</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>23.12540064491282</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>21.83666006983344</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>18.63708416061687</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.99567404420904</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8.141179147638493</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.953330067089522</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5673374599532365</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01036824598429672</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06934375837256945</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6697147190192893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.387493435195922</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.551464469752275</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>11.19749628071443</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>15.0564156062897</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>17.57012684729533</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>18.0351558233991</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>16.49864412472269</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>13.24161645624969</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.85166992840027</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.305395804921463</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.288029897841366</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.279504008528032</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004562089366616413</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05813547761174574</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5168772464026125</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.748292363087772</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.110178267150423</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.754285489801003</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>8.643160007840818</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>9.113000367812106</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>8.896313587622878</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>8.217185508249299</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>7.031221764969681</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.868053493470818</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.613982475160857</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01314282347015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2483970407047317</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003171026051549771</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.5848775960155383</v>
       </c>
       <c r="H8" t="n">
-        <v>9.666094735508892</v>
+        <v>5.989877680194134</v>
       </c>
       <c r="I8" t="n">
-        <v>36.38736651196942</v>
+        <v>22.54849352038907</v>
       </c>
       <c r="J8" t="n">
-        <v>80.10718496842655</v>
+        <v>49.64075486482384</v>
       </c>
       <c r="K8" t="n">
-        <v>120.0599046221887</v>
+        <v>74.39862350416159</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068053</v>
+        <v>92.29807123322215</v>
       </c>
       <c r="M8" t="n">
-        <v>165.7299311340341</v>
+        <v>102.6993881813635</v>
       </c>
       <c r="N8" t="n">
-        <v>168.4116146850913</v>
+        <v>104.3611716510426</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559844</v>
+        <v>98.54529505566312</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7252782213693</v>
+        <v>84.1061294040295</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.9240315263455</v>
+        <v>63.16020049672301</v>
       </c>
       <c r="R8" t="n">
-        <v>59.28844852233964</v>
+        <v>36.73981729071109</v>
       </c>
       <c r="S8" t="n">
-        <v>21.50773917103957</v>
+        <v>13.32789821920409</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342872</v>
+        <v>2.560301676558021</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.04679020768124306</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.3129371024341631</v>
       </c>
       <c r="H9" t="n">
-        <v>4.877223056164522</v>
+        <v>3.022313594561523</v>
       </c>
       <c r="I9" t="n">
-        <v>17.38701225744391</v>
+        <v>10.77436953556219</v>
       </c>
       <c r="J9" t="n">
-        <v>47.71129057803813</v>
+        <v>29.56569352427328</v>
       </c>
       <c r="K9" t="n">
-        <v>81.54619494042197</v>
+        <v>50.5324793873622</v>
       </c>
       <c r="L9" t="n">
-        <v>109.6489225228995</v>
+        <v>67.94715463159318</v>
       </c>
       <c r="M9" t="n">
-        <v>127.9551207786668</v>
+        <v>79.29112459483156</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>81.38972472475191</v>
       </c>
       <c r="O9" t="n">
-        <v>120.1520068700076</v>
+        <v>74.45569734976334</v>
       </c>
       <c r="P9" t="n">
-        <v>96.43257830122204</v>
+        <v>59.75726125341487</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.46262480772582</v>
+        <v>39.94614661949071</v>
       </c>
       <c r="R9" t="n">
-        <v>31.35420961992052</v>
+        <v>19.42955097393866</v>
       </c>
       <c r="S9" t="n">
-        <v>9.380126994939479</v>
+        <v>5.812669424599473</v>
       </c>
       <c r="T9" t="n">
-        <v>2.035498632431968</v>
+        <v>1.261356127793841</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.02058796726540547</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.262355954442216</v>
       </c>
       <c r="H10" t="n">
-        <v>3.764178316183975</v>
+        <v>2.332582940404432</v>
       </c>
       <c r="I10" t="n">
-        <v>12.73200600198015</v>
+        <v>7.889759066316826</v>
       </c>
       <c r="J10" t="n">
-        <v>29.93253043452224</v>
+        <v>18.54856597906467</v>
       </c>
       <c r="K10" t="n">
-        <v>49.18834241393778</v>
+        <v>30.48099179792291</v>
       </c>
       <c r="L10" t="n">
-        <v>62.94414333627064</v>
+        <v>39.00517526316365</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797569</v>
+        <v>41.125488385883</v>
       </c>
       <c r="N10" t="n">
-        <v>64.78774396352233</v>
+        <v>40.14761619205296</v>
       </c>
       <c r="O10" t="n">
-        <v>59.84196775054031</v>
+        <v>37.0828216333416</v>
       </c>
       <c r="P10" t="n">
-        <v>51.20514142997091</v>
+        <v>31.73076016272037</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702512</v>
+        <v>21.96873360333866</v>
       </c>
       <c r="R10" t="n">
-        <v>19.03642735362569</v>
+        <v>11.79647773337455</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090666</v>
+        <v>4.572148769688436</v>
       </c>
       <c r="T10" t="n">
-        <v>1.808960949495364</v>
+        <v>1.12097544170765</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.01431032478775725</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233468</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32557,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33505,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34155,7 +34155,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806951</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34368,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953974</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35579,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013285</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35816,7 +35816,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861315</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -35825,7 +35825,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P19" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
@@ -36290,16 +36290,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412307</v>
       </c>
       <c r="P22" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237172</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36375,7 +36375,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>675.9826703737858</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629108</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887907</v>
@@ -36527,16 +36527,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P25" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>742.5918998397231</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36767,13 +36767,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>527.426297583388</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36849,7 +36849,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>586.6502928476781</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37001,16 +37001,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>203.4751702124582</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37086,7 +37086,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>639.7330616553146</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37153,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37238,7 +37238,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412321</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37560,7 +37560,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193706</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887908</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302255</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687111</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
